--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_架构组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_架构组.xlsx
@@ -298,8 +298,7 @@
     <t>否</t>
   </si>
   <si>
-    <t>中等</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <t>低</t>
   </si>
 </sst>
 </file>
@@ -723,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,6 +954,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -981,36 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="13" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1380,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1481,65 +1477,65 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="46" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="86">
+      <c r="A2" s="77">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="90">
+      <c r="H2" s="81">
         <v>42775</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="90">
+      <c r="J2" s="81">
         <v>42776</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="89" t="s">
+      <c r="O2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="91" t="s">
+      <c r="P2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="90">
+      <c r="Q2" s="81">
         <v>42776</v>
       </c>
-      <c r="R2" s="91" t="s">
+      <c r="R2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="93" t="s">
+      <c r="S2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="92"/>
-      <c r="U2" s="94"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="85"/>
       <c r="V2" s="66" t="s">
         <v>81</v>
       </c>
@@ -5593,7 +5589,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 T2 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N77">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5777,19 +5773,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5827,8 +5823,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5840,8 +5836,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5853,8 +5849,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5866,8 +5862,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5879,8 +5875,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5892,8 +5888,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5905,8 +5901,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5918,8 +5914,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5980,36 +5976,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6294,36 +6290,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6608,36 +6604,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6924,36 +6920,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_架构组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_架构组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="764"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="764" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -300,12 +300,107 @@
   <si>
     <t>低</t>
   </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>V5.2.11</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>conf/jdbc.properties</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>jdbc.driverClassName=com.mysql.jdbc.Driver
+jdbc.url=
+jdbc.username=
+jdbc.password=
+jdbc.driverClassName_bl=com.mysql.jdbc.Driver
+jdbc.url_bl=
+jdbc.username_bl=
+jdbc.password_bl=
+jdbc.initialSize=3
+jdbc.maxTotal=5
+jdbc.maxWaitMillis=60000
+jdbc.maxIdle=3
+jdbc.minIdle=1
+jdbc.removeAbandonedOnMaintenance=true
+jdbc.removeAbandonedTimeout=60
+jdbc.timeBetweenEvictionRunsMillis=30000
+jdbc.numTestsPerEvictionRun=2
+jdbc.testOnBorrow=true
+jdbc.testOnReturn=true</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换连接池至DBCP2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>九天</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈铖</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>conf/systemconfig.properties</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sysconfig.lts.tasktracker.registryAddress=
+sysconfig.lts.tasktracker.nodeGroup=
+sysconfig.lts.tasktracker.clusterName=
+sysconfig.lts.tasktracker.workThreads=8
+sysconfig.lts.tasktracker.monitorUrl=
+sysconfig.lts.tasktracker.jobFailStore=
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加mogoda tasktracker节点</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.driverClassName=com.mysql.jdbc.Driver
+jdbc.url=jdbc:mysql://172.16.0.2:3306/mogo_da?useUnicode=true&amp;amp;characterEncoding=UTF-8&amp;allowMultiQueries=true
+jdbc.username=DB4CECEB70D2237527772DF747032143
+jdbc.password=32DFDB5F76B7F3ED4AE6D45CE2F053D8
+jdbc.driverClassName_bl=com.mysql.jdbc.Driver
+jdbc.url_bl=jdbc:mysql://172.16.0.13:3306/balance?useUnicode=true&amp;amp;characterEncoding=UTF-8
+jdbc.username_bl=BDE2DB31BE774E4C54F970157C05F56B
+jdbc.password_bl=EDADC3B414D7A4D59603060706DC3D8B4788530961C1743A441BD5B44098A04F
+jdbc.initialSize=3
+jdbc.maxTotal=5
+jdbc.maxWaitMillis=60000
+jdbc.maxIdle=3
+jdbc.minIdle=1
+jdbc.removeAbandonedOnMaintenance=true
+jdbc.removeAbandonedTimeout=60
+jdbc.timeBetweenEvictionRunsMillis=30000
+jdbc.numTestsPerEvictionRun=2
+jdbc.testOnBorrow=true
+jdbc.testOnReturn=true</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -483,6 +578,13 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -722,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +1109,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1376,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -6271,7 +6382,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6362,35 +6473,83 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
+    <row r="4" spans="1:13" ht="346.5">
+      <c r="A4" s="95">
+        <v>1</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="115.5">
+      <c r="A5" s="95">
+        <v>2</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="97"/>
     </row>
     <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
@@ -6584,8 +6743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6676,35 +6835,83 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
+    <row r="4" spans="1:13" ht="396">
+      <c r="A4" s="95">
+        <v>1</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="115.5">
+      <c r="A5" s="95">
+        <v>2</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="97"/>
     </row>
     <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
